--- a/features_review.xlsx
+++ b/features_review.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/augustingoudet/Desktop/FS_Projects/Investment-Overwatch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5CD76F-3D8D-D44C-8644-D55E32FF4B8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FD26AA-E19F-504E-A916-F9CDE4906ADE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{C82B464C-846F-2649-A0E4-CD0816A1361C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760" xr2:uid="{C82B464C-846F-2649-A0E4-CD0816A1361C}"/>
   </bookViews>
   <sheets>
     <sheet name="Existing Features" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterate="1"/>
+  <calcPr calcId="181029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -696,7 +696,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -724,6 +724,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,13 +766,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -779,9 +782,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -791,6 +791,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1107,26 +1114,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4AA0078-6ECF-1643-96F6-E71201039632}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" style="3" customWidth="1"/>
-    <col min="5" max="6" width="32.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26" style="3" customWidth="1"/>
-    <col min="13" max="13" width="43.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="37.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" style="2" customWidth="1"/>
+    <col min="5" max="6" width="32.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26" style="2" customWidth="1"/>
+    <col min="13" max="13" width="43.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="39" x14ac:dyDescent="0.2">
@@ -1135,771 +1142,771 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="3" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="2" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="2" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="2" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="2" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="2" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="N11" s="2" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="2" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="2" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
+      <c r="A23" s="4"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
     </row>
     <row r="27" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="3" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="2" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="2" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="2" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="2" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="2" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="2" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="2" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
     </row>
     <row r="37" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="10" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="10" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="10" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="10" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="10" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="11" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="10" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="10" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="10" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="5" t="s">
         <v>204</v>
       </c>
     </row>

--- a/features_review.xlsx
+++ b/features_review.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/augustingoudet/Desktop/FS_Projects/Investment-Overwatch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FD26AA-E19F-504E-A916-F9CDE4906ADE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3695E1D5-1BFF-8B4A-9B6A-367D732D7530}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760" xr2:uid="{C82B464C-846F-2649-A0E4-CD0816A1361C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680" xr2:uid="{C82B464C-846F-2649-A0E4-CD0816A1361C}"/>
   </bookViews>
   <sheets>
     <sheet name="Existing Features" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -657,7 +657,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -690,6 +690,13 @@
     <font>
       <i/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -766,7 +773,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -791,13 +798,16 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1115,7 +1125,7 @@
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1140,48 +1150,52 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="15">
+        <f>COUNTA(A4:N24)</f>
+        <v>138</v>
+      </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="12" t="s">
         <v>64</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -1190,10 +1204,10 @@
       <c r="J3" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="12" t="s">
         <v>153</v>
       </c>
       <c r="M3" s="3" t="s">
@@ -1659,15 +1673,15 @@
       <c r="A23" s="4"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
@@ -1779,12 +1793,12 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
     </row>
